--- a/biology/Botanique/Suaeda_vera/Suaeda_vera.xlsx
+++ b/biology/Botanique/Suaeda_vera/Suaeda_vera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Suaeda vera, la Soude ligneuse, Soude vraie ou Soude en buisson, est une espèce de plantes dicotylédones de la famille des Amaranthaceae, originaire du bassin méditerranéen et d'Europe occidentale.
 </t>
@@ -513,15 +525,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste des sous-espèces et variétés
-Selon Catalogue of Life                                   (9 mai 2015)[2] :
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (9 mai 2015) :
 sous-espèce Suaeda vera subsp. longifolia (K. Koch) O. Bolòs &amp; Vigo
 sous-espèce Suaeda vera subsp. pruinosa (Lange) O. Bolòs &amp; Vigo
 variété Suaeda vera var. deserti Zohary &amp; Baum
-Selon Tropicos                                           (9 mai 2015)[3] :
-variété Suaeda vera var. brevifolia (Boiss.) Schweinfurth &amp; Muschler
-Synonymes
-Selon Flora iberica[4] :
+Selon Tropicos                                           (9 mai 2015) :
+variété Suaeda vera var. brevifolia (Boiss.) Schweinfurth &amp; Muschler</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Suaeda_vera</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suaeda_vera</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Flora iberica :
 Suaeda fruticosa subsp. vera (Forssk. ex J.F. Gmel.) Maire &amp; Weiller (1962)
 Schoberia fruticosa (L.) C.A. Mey. (1829)
 Salsola fruticosa (L.) L. (1762)
@@ -534,37 +585,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Suaeda_vera</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Suaeda_vera</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La floraison a lieu de juillet à octobre[5].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -586,12 +606,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de juillet à octobre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Suaeda_vera</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suaeda_vera</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante halophile qui se plait dans les prés salés et sansouires des zones littorales[6]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante halophile qui se plait dans les prés salés et sansouires des zones littorales
 </t>
         </is>
       </c>
